--- a/Gini Index varying tax income.xlsx
+++ b/Gini Index varying tax income.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhawk\OneDrive\Projects\Modelling-Complex-Software-Systems\Wealth_Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c03bb7544101ae3/Projects/Modelling-Complex-Software-Systems/Wealth_Distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2093582E-1DB4-451C-8B99-B8F48BF38BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{2093582E-1DB4-451C-8B99-B8F48BF38BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1983326C-B9B7-40BC-8246-F78A88CF463B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gini Index varying tax" sheetId="1" r:id="rId1"/>
+    <sheet name="Gini Index varying tax (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Gini Index varying tax" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Gini Index varying tax</t>
   </si>
@@ -28,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,6 +661,1018 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Gini Index varying tax (2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gini Index varying tax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gini Index varying tax (2)'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gini Index varying tax (2)'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.509308258332831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49308701145822198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50049545604622103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50693793712644497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50896775565411601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50325370507299505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50296568184118495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50482102386798899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50526617683786801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49894456816347599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49506064088294599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49663691812988098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.501501680868637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49062828955502602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50276181333205405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49892725407591998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48998298514786298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49776388855641801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49797304016251398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49930381652007799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49906828094724198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49702454734935803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50257523420058103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50001919447509102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49382851368571001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49111398029162101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49058378489761301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50127152601971403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49819185086941897</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49819771279171099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48756905259498401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48534365458277801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48743804595200302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48658993417208402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49082419352822299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48086970847120097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48174921425991801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48684371705642698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48114931992718601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47740588627195202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48791276782927601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.479290867089749</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47944954817455698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.486442478200453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47985965417757898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47402916825591901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47734215427158799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47177204298915298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46755213849181299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47105699365355103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.469732168913574</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.465720987788944</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46395079066591399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4740969337507</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45367542176735998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.47989089462592199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46970537451338601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46184082774917301</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.458474469063826</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45559153455187501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43833944386379797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.440441733131542</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44545093420975101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.437869567372971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43831547895454598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42635438660833702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.43361767657643002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.42146245912082603</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39535587439540099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.41420543987575298</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.38989465712014498</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.386522517018553</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38945150375871901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37054615896027598</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38053520388328299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.354370893581956</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.34518107147080401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.325921255762263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.32073210712184202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31362180076790702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29558235879631101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30727864357789503</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.29655865528436798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.27373182191533502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.26855065545004397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.26395618140139998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.220241073342275</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23272005211577099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.210522112932371</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.2039709383735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19585234042229799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.202311404246177</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18434376870480601</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.184823334288924</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16349949306328601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.16415664428402499</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16622194601676199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14453373301663799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.13688968697071699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13689382446002399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B92-4CEC-8E67-9ECB093B1E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="152762880"/>
+        <c:axId val="152742080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152762880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Income</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Tax %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152742080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152742080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Gini Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152762880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gini Index varying Income Tax</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Gini Index varying tax'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1621,6 +2645,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2137,7 +3201,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACD5AA5-AC04-4237-825B-F71B86A40F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2474,10 +4097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D8E45-6073-43CB-95BD-F697710F383E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -3292,4 +4916,826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.509308258332831</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.49308701145822198</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.50049545604622103</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.50693793712644497</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50896775565411601</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.50325370507299505</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.50296568184118495</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.50482102386798899</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.50526617683786801</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.49894456816347599</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.49506064088294599</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.49663691812988098</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.501501680868637</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.49062828955502602</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.50276181333205405</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.49892725407591998</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.48998298514786298</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.49776388855641801</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.49797304016251398</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.49930381652007799</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.49906828094724198</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.49702454734935803</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.50257523420058103</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.50001919447509102</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.49382851368571001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.49111398029162101</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.49058378489761301</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.50127152601971403</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.49819185086941897</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.49819771279171099</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.48756905259498401</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.48534365458277801</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.48743804595200302</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.48658993417208402</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.49082419352822299</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.48086970847120097</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.48174921425991801</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.48684371705642698</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.48114931992718601</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.47740588627195202</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.48791276782927601</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.479290867089749</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.47944954817455698</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.486442478200453</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.47985965417757898</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.47402916825591901</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.47734215427158799</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.47177204298915298</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.46755213849181299</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.47105699365355103</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.469732168913574</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.465720987788944</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.46395079066591399</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.4740969337507</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.45367542176735998</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.47989089462592199</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.46970537451338601</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.46184082774917301</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.458474469063826</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.45559153455187501</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.43833944386379797</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.440441733131542</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.44545093420975101</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.437869567372971</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.43831547895454598</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.42635438660833702</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.43361767657643002</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.42146245912082603</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.39535587439540099</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.41420543987575298</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.38989465712014498</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.386522517018553</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.38945150375871901</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.37054615896027598</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.38053520388328299</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.354370893581956</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.34518107147080401</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.325921255762263</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.32073210712184202</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.31362180076790702</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.29558235879631101</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.30727864357789503</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.29655865528436798</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.27373182191533502</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.26855065545004397</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.26395618140139998</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.220241073342275</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.23272005211577099</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.210522112932371</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.2039709383735</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.19585234042229799</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.202311404246177</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.18434376870480601</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.184823334288924</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.16349949306328601</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.16415664428402499</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.16622194601676199</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.14453373301663799</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.13688968697071699</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.13689382446002399</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>